--- a/report/No4_KUBM020_テスト結果.xlsx
+++ b/report/No4_KUBM020_テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4AC9A7-B7FC-4D80-A18E-98FB855603EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D1185D-A737-451F-B799-0653FDFD254C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="1" r:id="rId1"/>
@@ -230,21 +230,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7.テストケース2実行後</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ区分が１のレコードであるインプットファイルの９と１０レコード目が加算されて以下の結果になる</t>
-  </si>
-  <si>
-    <t>データ区分が９のレコードであるインプットファイルの１１と１２レコード目が減算されて以下の結果になる</t>
-  </si>
-  <si>
     <t>金額：100000000</t>
-  </si>
-  <si>
-    <t>8.テストケース２実行後</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>集計金額が+の時に正しい値になっている</t>
@@ -380,6 +366,20 @@
   <si>
     <t>17.OTFにKUBM020out.binを設定して./KUBM020で実行する</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ区分が1のレコードである集計キーがC001、202512の９と１０レコード目が加算されて以下の結果になる</t>
+  </si>
+  <si>
+    <t>7.テストケース2実行後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.テストケース２実行後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ区分が９のレコードである集計キーがC001、202512の１１と１２レコード目が減算されて以下の結果になる</t>
   </si>
 </sst>
 </file>
@@ -1885,15 +1885,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1907,14 +1907,14 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1447800" y="2038350"/>
-          <a:ext cx="3467100" cy="1"/>
+        <a:xfrm flipV="1">
+          <a:off x="1457325" y="2019300"/>
+          <a:ext cx="3695700" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1982,39 +1982,129 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5982535" cy="2162477"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A857D1-3752-4A15-928E-97DD9B9DE7BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8915400"/>
+          <a:ext cx="5982535" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5982535" cy="2162477"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760C173E-DE0F-413E-8C11-AD5A70E685C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12515850"/>
+          <a:ext cx="5982535" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746196FD-E869-42E8-8D64-DB8C4EB18E44}"/>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283EF416-B66F-4487-A373-5C81E13EAC24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1409700" y="5943600"/>
-          <a:ext cx="3124200" cy="1"/>
+        <a:xfrm flipV="1">
+          <a:off x="1438275" y="2181225"/>
+          <a:ext cx="3238500" cy="9526"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2039,37 +2129,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECC77EB-D325-46C6-BE58-1C192CCCD9AA}"/>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27243013-E802-4D93-8C25-CF6C95600114}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4724400" y="5791200"/>
-          <a:ext cx="381000" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="1409700" y="5934075"/>
+          <a:ext cx="3686175" cy="9527"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2092,84 +2182,39 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5982535" cy="2162477"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A857D1-3752-4A15-928E-97DD9B9DE7BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="5314950"/>
-          <a:ext cx="5982535" cy="2162477"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161FA8F7-0EAA-4988-AECD-46362C031288}"/>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F30B6CF-E1C2-47F7-A6FA-9A4CF10BC524}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3028950" y="9848850"/>
-          <a:ext cx="971550" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="4705350" y="5781675"/>
+          <a:ext cx="428625" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2192,84 +2237,39 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5982535" cy="2162477"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760C173E-DE0F-413E-8C11-AD5A70E685C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="8915400"/>
-          <a:ext cx="5982535" cy="2162477"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116D078D-A59A-453E-A179-8065C4209B3B}"/>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E3DAE8-43EF-4C67-AD04-B041EA7D02F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2352675" y="13754100"/>
-          <a:ext cx="1181100" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="4286250" y="9686925"/>
+          <a:ext cx="838200" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2290,6 +2290,1117 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0DA68D-DBE3-43A3-840B-6E62C3B95E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="9839325"/>
+          <a:ext cx="3733800" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5927B903-8723-4018-A9FB-7995229F80AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="10001250"/>
+          <a:ext cx="2343150" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701CE6A1-831D-450F-B496-96FBC5D8ACFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="6096000"/>
+          <a:ext cx="2781300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDADB9E-3205-46E5-90CA-677653CA9FA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3829050" y="13582650"/>
+          <a:ext cx="1285875" cy="9527"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C35B672-BB71-425A-AE43-8D5DE31C70DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1438275" y="13744575"/>
+          <a:ext cx="3667125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73BA4E6-9DE8-4BD0-A203-D2637C3ACDB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="13896975"/>
+          <a:ext cx="1771650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F078758-12D3-48B9-ADA6-A1045693B42E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="2038351"/>
+          <a:ext cx="762000" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D9E3D9-A18B-4607-B533-45F556D04822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6391275" y="5791200"/>
+          <a:ext cx="209550" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7675E2-AAFA-4F61-AA06-6FE2B1DB8384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="5943600"/>
+          <a:ext cx="619125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7773882E-4B5A-473D-9119-8BFB14691AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6257925" y="9696450"/>
+          <a:ext cx="304800" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F85365-29F5-4EBF-A9A9-9A338D776EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5305425" y="9848850"/>
+          <a:ext cx="523875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>52539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438985</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A72B80D-6375-4B0A-808C-9FB38EFC7294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6076950" y="13597089"/>
+          <a:ext cx="534235" cy="4611"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>534761</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA2AC22-DEAB-45C0-B5AC-F188C8F5C9E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5335361" y="13950043"/>
+          <a:ext cx="346982" cy="2721"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="吹き出し: 角を丸めた四角形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D5E8DD-7D3C-424C-B213-F2EC55C873B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="2552700"/>
+          <a:ext cx="2095500" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -98106"/>
+            <a:gd name="adj2" fmla="val -97704"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202511</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のレコードであることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="吹き出し: 角を丸めた四角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D3F805-D3DE-4EFC-B611-7DA4B51C8825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="5391150"/>
+          <a:ext cx="2095500" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -89015"/>
+            <a:gd name="adj2" fmla="val 8418"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202512</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のレコードであることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="吹き出し: 角を丸めた四角形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002C5D02-A30F-4987-A95D-1D3DD3BC7372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="8620125"/>
+          <a:ext cx="2095500" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63560"/>
+            <a:gd name="adj2" fmla="val 42093"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202511</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のレコードであることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="吹き出し: 角を丸めた四角形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D828D7F4-5340-4666-B4CF-980BE18AEBE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="12306300"/>
+          <a:ext cx="2095500" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71287"/>
+            <a:gd name="adj2" fmla="val 64541"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202512</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のレコードであることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4618,12 +5729,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
@@ -4638,12 +5749,12 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
@@ -4653,7 +5764,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4668,7 +5779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC7C22B-FEB3-42D5-85B6-BC5F67F694C6}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -4676,12 +5787,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
@@ -4696,7 +5807,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4799,8 +5910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55499C7-229E-4870-AA5C-AAF8D5F1E7E7}">
   <dimension ref="B2:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K14"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4987,8 +6098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BFF03B-B36B-455B-9998-8317E02D4860}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5000,7 +6111,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>40</v>
@@ -5008,7 +6119,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
         <v>8</v>
@@ -5066,18 +6177,18 @@
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>57</v>
+      <c r="B36" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
@@ -5105,12 +6216,12 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>40</v>
@@ -5118,7 +6229,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
         <v>8</v>
@@ -5126,7 +6237,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>14</v>
@@ -5134,7 +6245,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>15</v>
@@ -5142,7 +6253,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>16</v>
@@ -5150,7 +6261,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
@@ -5158,7 +6269,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>9</v>
@@ -5206,12 +6317,12 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>40</v>
@@ -5219,7 +6330,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
         <v>8</v>
@@ -5227,7 +6338,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>14</v>
@@ -5235,7 +6346,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>15</v>
@@ -5298,52 +6409,52 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
@@ -5353,7 +6464,7 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5375,12 +6486,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
@@ -5390,27 +6501,27 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
@@ -5420,22 +6531,22 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5446,6 +6557,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -5603,22 +6729,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5634,28 +6769,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/report/No4_KUBM020_テスト結果.xlsx
+++ b/report/No4_KUBM020_テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D1185D-A737-451F-B799-0653FDFD254C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ACA01A-594D-453A-8C49-E3291CEF061E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="1" r:id="rId1"/>
@@ -3308,14 +3308,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3330,13 +3330,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6743700" y="12306300"/>
+          <a:off x="6743700" y="12411075"/>
           <a:ext cx="2095500" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -71287"/>
-            <a:gd name="adj2" fmla="val 64541"/>
+            <a:gd name="adj1" fmla="val -74014"/>
+            <a:gd name="adj2" fmla="val 55357"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -3837,6 +3837,369 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 角を丸めた四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57399FD4-E207-49A7-A89E-E576B3EDD587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="3914775"/>
+          <a:ext cx="2095500" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63560"/>
+            <a:gd name="adj2" fmla="val 42093"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202511</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のレコードであることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618E9D7A-4673-445A-BD31-5AB35D35FC54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="5000625"/>
+          <a:ext cx="638175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172B7FB8-28BB-4715-AF6F-2AEAFC0161B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5305425" y="5153025"/>
+          <a:ext cx="200025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="吹き出し: 角を丸めた四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48456B3-9035-4016-A4CE-CFBA4E20425E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="9486900"/>
+          <a:ext cx="2095500" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63560"/>
+            <a:gd name="adj2" fmla="val 42093"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202512</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のレコードであることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1264BEF-65E8-4BDD-9822-A656D17606B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="10620375"/>
+          <a:ext cx="790575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3846,16 +4209,16 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5982535" cy="2162477"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553F1304-DFD8-416A-991B-C5A4C30DC561}"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8E5CB1-6999-4F47-9E58-20564BD5C691}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3877,6 +4240,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="685800" y="2057400"/>
+          <a:ext cx="5982535" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5982535" cy="2162477"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553F1304-DFD8-416A-991B-C5A4C30DC561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="685800" y="8915400"/>
           <a:ext cx="5982535" cy="2162477"/>
         </a:xfrm>
@@ -3889,16 +4297,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3913,8 +4321,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800475" y="2381250"/>
-          <a:ext cx="1114425" cy="0"/>
+          <a:off x="6353175" y="5105400"/>
+          <a:ext cx="238125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3999,23 +4407,130 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464B37BB-0C68-4325-9ABC-75B29CFEF568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810374" y="2543175"/>
+          <a:ext cx="3000376" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71619"/>
+            <a:gd name="adj2" fmla="val -50764"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202511</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>であることから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコード目であることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F70FD7-17DB-4256-BFE7-46C620D5AF0F}"/>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F855BE-D3B1-4F20-A7F4-CDB59FC93F8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4023,8 +4538,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819400" y="2981325"/>
-          <a:ext cx="1162050" cy="9525"/>
+          <a:off x="5286375" y="2390775"/>
+          <a:ext cx="828675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4054,23 +4569,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8306C5E4-A423-4935-B7F2-45D68BEA01DE}"/>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094CEB40-E244-4EB4-8E4F-9C907F38185F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4078,8 +4593,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1438275" y="3905250"/>
-          <a:ext cx="1162050" cy="9525"/>
+          <a:off x="3343275" y="2686050"/>
+          <a:ext cx="1114425" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4109,23 +4624,130 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="吹き出し: 角を丸めた四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF3990D-D21E-4106-9C9A-41D4DCF4C56B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743699" y="5181600"/>
+          <a:ext cx="3000376" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69079"/>
+            <a:gd name="adj2" fmla="val -39540"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202512</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>であることから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコード目であることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43B5AB4-B3E8-4E48-9831-355DE04FF660}"/>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E680493-B6CE-4E00-BA38-4E03E387C65E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4133,8 +4755,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="3590925"/>
-          <a:ext cx="1143000" cy="0"/>
+          <a:off x="5334000" y="5267325"/>
+          <a:ext cx="638175" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4162,6 +4784,902 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5982535" cy="2162477"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C3FB16C-7A9C-4C6E-9B1B-CAA1FB449CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4629150"/>
+          <a:ext cx="5982535" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807AD117-C31E-488B-AD60-D91A7BEBF8F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="7981950"/>
+          <a:ext cx="314325" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D247926-0374-4496-A107-E206B63F9A88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="5553075"/>
+          <a:ext cx="1162050" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="吹き出し: 角を丸めた四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20E6EAA-B7F5-4D26-AA08-64A725EBD2A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667499" y="7620000"/>
+          <a:ext cx="3000376" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61143"/>
+            <a:gd name="adj2" fmla="val 7399"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202511</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>であることから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコード目であることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC1F8B0-78E0-4924-89AF-9FF78C7D210E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5343525" y="8134350"/>
+          <a:ext cx="476250" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5982535" cy="2162477"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FF81C1-ACCD-4831-97F4-08DB4CE75981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7200900"/>
+          <a:ext cx="5982535" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987A330F-E530-4598-AC87-6F14B4F98732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="11325225"/>
+          <a:ext cx="142875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB8678B-F45B-407A-8191-CD997B0BFEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="8734425"/>
+          <a:ext cx="1143000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="吹き出し: 角を丸めた四角形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7141E577-BDD3-4544-B500-AD6A7F3FDAF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762749" y="9810750"/>
+          <a:ext cx="3000376" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64635"/>
+            <a:gd name="adj2" fmla="val 39032"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202511</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>であることから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコード目であることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA94A3E-91CE-4030-963F-2007E2693EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="11172825"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5982535" cy="2162477"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADB6B48-E3AA-4DD6-9FC7-E587824A54E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9772650"/>
+          <a:ext cx="5982535" cy="2162477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FBB4FD-FA96-473A-8EEB-307768C1A918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="11620500"/>
+          <a:ext cx="1162050" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="吹き出し: 角を丸めた四角形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0900CB50-9C52-495B-8252-26FA6F3648A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753224" y="12954000"/>
+          <a:ext cx="3000376" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59238"/>
+            <a:gd name="adj2" fmla="val 40052"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202512</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>であることから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコード目であることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C67AB2-81F6-4C81-B48D-2036BFC6738B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="14058900"/>
+          <a:ext cx="781050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4240,6 +5758,223 @@
         <a:xfrm>
           <a:off x="2371725" y="2781300"/>
           <a:ext cx="1162050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BAC084-0C60-4DCA-9754-184DB684D449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="2781300"/>
+          <a:ext cx="3000376" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72889"/>
+            <a:gd name="adj2" fmla="val -52805"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集計キーが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>得意先：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受注年月：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>202512</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>であることから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコード目であることがわかる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601579</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>412917</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950DD133-6A83-443B-92CB-18C313905BE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="2621882"/>
+          <a:ext cx="498141" cy="3410"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526382</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170447</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60158</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C31FB36-DE99-4C36-BABC-872D63D5C1EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5334000" y="2782303"/>
+          <a:ext cx="330868" cy="5013"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5779,8 +7514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC7C22B-FEB3-42D5-85B6-BC5F67F694C6}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5910,8 +7645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55499C7-229E-4870-AA5C-AAF8D5F1E7E7}">
   <dimension ref="B2:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6090,7 +7825,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6098,8 +7834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BFF03B-B36B-455B-9998-8317E02D4860}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6208,8 +7944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C754A226-1ECC-457C-B41B-57EAEADFD0B7}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L14"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6301,7 +8037,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6309,8 +8046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBEF889-3DF5-40E2-95AE-B7D63530DA03}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6478,7 +8215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBBA572-A0E9-4309-94DD-F60F5AB37EDB}">
   <dimension ref="B2:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:E48"/>
     </sheetView>
   </sheetViews>

--- a/report/No4_KUBM020_テスト結果.xlsx
+++ b/report/No4_KUBM020_テスト結果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ACA01A-594D-453A-8C49-E3291CEF061E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B4B80C-EAEC-47B4-BB90-90822DB74651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
   <si>
     <t xml:space="preserve">・テキストからプログラムが読み込めるファイルに変換する前のファイルとしてKUBM020in.txtを用意しKUBM020.COBで動作するようKUBM020in.binに変換する
 </t>
@@ -3570,61 +3570,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B8DB60-1022-404F-A109-52EB3F12215E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1885950" y="5143500"/>
-          <a:ext cx="1114425" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3772,7 +3717,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="3600450"/>
+          <a:off x="685800" y="8915400"/>
           <a:ext cx="5982535" cy="2162477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3782,61 +3727,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20EE57E-3EB8-4415-90AF-1ED7C17E22A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1438275" y="10763250"/>
-          <a:ext cx="1114425" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -4200,6 +4090,437 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F8FA06-128E-4006-B75C-62FD2146C8B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="4972050"/>
+          <a:ext cx="1133475" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86D955F-7455-46B5-B8F6-11F45D05D292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="10601325"/>
+          <a:ext cx="2333625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C63757D-0456-46FA-9715-3BF82FD5EB92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="10591800"/>
+          <a:ext cx="1104900" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB28B6F3-F32D-4E80-8E6B-5BC0969645C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="10753725"/>
+          <a:ext cx="3648075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC93F0BF-646B-453C-86BB-B805A83BFE95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="10915650"/>
+          <a:ext cx="847725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96B6016-5DCD-4CDE-B092-801FB3C01C85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="5133975"/>
+          <a:ext cx="3695700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7315276B-47A2-495C-B2CC-7DB0E7413F52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="5295900"/>
+          <a:ext cx="1314450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4323,61 +4644,6 @@
         <a:xfrm>
           <a:off x="6353175" y="5105400"/>
           <a:ext cx="238125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F3F050-78F4-4140-9B53-EE64B441AF89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="2686050"/>
-          <a:ext cx="1114425" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4569,61 +4835,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094CEB40-E244-4EB4-8E4F-9C907F38185F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="2686050"/>
-          <a:ext cx="1114425" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -4886,61 +5097,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D247926-0374-4496-A107-E206B63F9A88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2819400" y="5553075"/>
-          <a:ext cx="1162050" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>495299</xdr:colOff>
       <xdr:row>44</xdr:row>
@@ -5203,61 +5359,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線コネクタ 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB8678B-F45B-407A-8191-CD997B0BFEF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1885950" y="8734425"/>
-          <a:ext cx="1143000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590549</xdr:colOff>
       <xdr:row>57</xdr:row>
@@ -5465,61 +5566,6 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線コネクタ 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FBB4FD-FA96-473A-8EEB-307768C1A918}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1438275" y="11620500"/>
-          <a:ext cx="1162050" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
       <xdr:row>75</xdr:row>
@@ -5680,6 +5726,1172 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F869C19A-84A9-4F9D-856E-4D31FCC8910F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="2362200"/>
+          <a:ext cx="3648075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F64945-9436-4010-816A-2F8995C749AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="2514600"/>
+          <a:ext cx="3267075" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBA8B51-2584-4CB5-910F-C32728A1190A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="2200275"/>
+          <a:ext cx="1104900" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C22C6EF-3283-4D9C-A70E-BDD8A8926375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="5238750"/>
+          <a:ext cx="3648075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7556DE99-A5D4-4B33-B214-1025582DB449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="5095875"/>
+          <a:ext cx="485775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6F036A-2966-44B4-9A40-19941DBD1C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="5076825"/>
+          <a:ext cx="1104900" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D41CBCB-0926-4318-B61F-A6D6BEB89C2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="7972425"/>
+          <a:ext cx="1181100" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057AFF4E-F328-4A29-815F-152248B0F497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="8124825"/>
+          <a:ext cx="3686175" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FBD2E8F-2544-47F1-963E-3E6C11083779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="5400675"/>
+          <a:ext cx="2781300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7C9E97-D60F-4FBB-8257-41427C5F25A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1428750" y="8277225"/>
+          <a:ext cx="2362200" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B216B9A9-55CF-4794-B16E-B46A6A461067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="7981950"/>
+          <a:ext cx="838200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F4CD3B-3525-43C0-8CB3-B2B7189A22E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="11144250"/>
+          <a:ext cx="1809750" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>84534</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>136922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>379809</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>155974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91AEEB79-E461-4323-9BBD-FD9255F89709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1453753" y="11358563"/>
+          <a:ext cx="3718322" cy="19052"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBC332A-5611-42EF-A5B8-07D9235393CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1435894" y="11537156"/>
+          <a:ext cx="1340644" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>298846</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>153590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D9C2E1-1027-41EA-8AB2-89A489547590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="11221641"/>
+          <a:ext cx="1179909" cy="153590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>125014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>531018</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>105964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18EEE85-25A4-43FB-8349-9FE7D30764B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1404937" y="14108905"/>
+          <a:ext cx="1179909" cy="153590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>363140</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>125018</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BB6381-45C4-4117-AF3E-26EC7C83C9BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2821782" y="14091047"/>
+          <a:ext cx="2333624" cy="17862"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>113110</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>408385</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88298420-68BE-4A44-B5BA-DB8BFA684E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1482329" y="14251781"/>
+          <a:ext cx="3718322" cy="19052"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65485</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>267891</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>101205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74199F83-8A5E-488D-B781-8344D7C4BF15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1434704" y="14418469"/>
+          <a:ext cx="887015" cy="11908"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5730,61 +6942,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93615B8F-1AA3-4B31-96D2-121CC310F05F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2371725" y="2781300"/>
-          <a:ext cx="1162050" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -6000,6 +7157,192 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>170262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9446A3F7-854C-48ED-84C5-597B61B4A3D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="2913462"/>
+          <a:ext cx="1828800" cy="1188"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27387</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F270AE6-DB0E-4860-9104-3918AF1FF82B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1438275" y="2752725"/>
+          <a:ext cx="3743325" cy="17862"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>113109</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238C55CC-288D-4372-A694-51C36EA608E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="2619375"/>
+          <a:ext cx="1179909" cy="153590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7515,7 +8858,7 @@
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7645,8 +8988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55499C7-229E-4870-AA5C-AAF8D5F1E7E7}">
   <dimension ref="B2:K72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7834,8 +9177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BFF03B-B36B-455B-9998-8317E02D4860}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7944,8 +9287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C754A226-1ECC-457C-B41B-57EAEADFD0B7}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8047,7 +9390,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8092,6 +9435,9 @@
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>16</v>
@@ -8294,21 +9640,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -8466,31 +9797,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8506,4 +9828,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/report/No4_KUBM020_テスト結果.xlsx
+++ b/report/No4_KUBM020_テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B4B80C-EAEC-47B4-BB90-90822DB74651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAE99CB-6847-43CB-8DDA-5461707BEF90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="1" r:id="rId1"/>
@@ -4521,6 +4521,65 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256B6A40-463C-4A66-AE4C-D9B4219565CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="4981575"/>
+          <a:ext cx="1781175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7343,6 +7402,65 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC55A36F-683F-477D-88AE-8FFF69F9A4A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3819525" y="2600325"/>
+          <a:ext cx="1333500" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8857,7 +8975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC7C22B-FEB3-42D5-85B6-BC5F67F694C6}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
@@ -9177,8 +9295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BFF03B-B36B-455B-9998-8317E02D4860}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9389,8 +9507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBEF889-3DF5-40E2-95AE-B7D63530DA03}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
